--- a/presentations/Efecto en el benchmark.xlsx
+++ b/presentations/Efecto en el benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresp/Documents/R Projects/Trading bloque/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94046D22-7281-354F-945D-31685DCDB732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7455E-689F-AF47-8E62-ECE242FF993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>portfolio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>CAGR</t>
   </si>
@@ -50,27 +47,6 @@
     <t>Calmar</t>
   </si>
   <si>
-    <t>T-Bill 3 meses</t>
-  </si>
-  <si>
-    <t>T-Bill 1-5 años</t>
-  </si>
-  <si>
-    <t>Benchmark 20</t>
-  </si>
-  <si>
-    <t>Trend Following 20</t>
-  </si>
-  <si>
-    <t>Benchmark 20 y T-Bill 1-5 años</t>
-  </si>
-  <si>
-    <t>Trend Following 20 y T-Bill 1-5 años</t>
-  </si>
-  <si>
-    <t>Benchmark 80 y TF 20</t>
-  </si>
-  <si>
     <t>Benchmark de 5 activos</t>
   </si>
   <si>
@@ -81,14 +57,54 @@
   </si>
   <si>
     <t>DD.Dur.</t>
+  </si>
+  <si>
+    <t>Retorno Tesorería 1992-2022</t>
+  </si>
+  <si>
+    <t>Efecto sobre la Tesorería 1992-2022</t>
+  </si>
+  <si>
+    <t>80 Benchmark 20 Trend Following</t>
+  </si>
+  <si>
+    <t>Estrategias individuales</t>
+  </si>
+  <si>
+    <t>100% T-Bill 3 meses</t>
+  </si>
+  <si>
+    <t>100% T-Bill 1-5 años</t>
+  </si>
+  <si>
+    <t>20% Benchmark</t>
+  </si>
+  <si>
+    <t>20% Trend Following</t>
+  </si>
+  <si>
+    <t>20% Benchmark, 80% T-Bill 1-5 años</t>
+  </si>
+  <si>
+    <t>20% Trend Following, 80% T-Bill 1-5 años</t>
+  </si>
+  <si>
+    <t>80% Benchmark, 20% Trend Following</t>
+  </si>
+  <si>
+    <t>Efecto directo en el portafolio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="#,##0_)&quot; m.&quot;;\(#,##0\)"/>
+    <numFmt numFmtId="171" formatCode="0;[Red]General"/>
+    <numFmt numFmtId="172" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -117,7 +133,7 @@
       <name val="Goldman Sans Regular"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +146,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,20 +161,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -492,248 +573,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13">
+        <f>B3/C3</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22">
+        <v>-6</v>
+      </c>
+      <c r="E4" s="11">
+        <v>20</v>
+      </c>
+      <c r="F4" s="13">
+        <f>B4/C4</f>
+        <v>1.7</v>
+      </c>
+      <c r="G4" s="3">
+        <f>B4/ABS(D4)</f>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B7" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7" s="20">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="12">
+        <v>29</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" ref="F7:F8" si="0">B7/C7</f>
+        <v>0.73913043478260876</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:G8" si="1">B7/ABS(D7)</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B8" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="D8" s="20">
+        <v>-5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D11" s="19">
+        <v>-7</v>
+      </c>
+      <c r="E11" s="11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11:G12" si="2">B11/ABS(D11)</f>
+        <v>0.62857142857142867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D12" s="19">
+        <v>-5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>22</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D15" s="20">
+        <v>-35</v>
+      </c>
+      <c r="E15" s="12">
+        <v>29</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="7">
+        <f>B15/ABS(D15)</f>
+        <v>0.24571428571428569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B18" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="D18" s="19">
+        <v>-46</v>
+      </c>
+      <c r="E18" s="11">
+        <v>34</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ref="G18:G19" si="3">B18/ABS(D18)</f>
+        <v>0.16956521739130434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G2" s="3">
-        <v>449.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="B19" s="28">
+        <v>9.9</v>
+      </c>
+      <c r="C19" s="28">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D19" s="29">
+        <v>-25</v>
+      </c>
+      <c r="E19" s="30">
+        <v>16</v>
+      </c>
+      <c r="F19" s="31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-10</v>
-      </c>
-      <c r="E4" s="5">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-46</v>
-      </c>
-      <c r="E8" s="3">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-35</v>
-      </c>
-      <c r="E9" s="3">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.4</v>
-      </c>
+      <c r="G19" s="32">
+        <f t="shared" si="3"/>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/presentations/Efecto en el benchmark.xlsx
+++ b/presentations/Efecto en el benchmark.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresp/Documents/R Projects/Trading bloque/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7455E-689F-AF47-8E62-ECE242FF993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542D9640-4FAB-2D4F-9646-6889427A1EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>CAGR</t>
   </si>
@@ -94,6 +95,12 @@
   <si>
     <t>Efecto directo en el portafolio</t>
   </si>
+  <si>
+    <t>Retorno Anualizado</t>
+  </si>
+  <si>
+    <t>Máxima Caída</t>
+  </si>
 </sst>
 </file>
 
@@ -101,10 +108,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0_)&quot; m.&quot;;\(#,##0\)"/>
-    <numFmt numFmtId="171" formatCode="0;[Red]General"/>
-    <numFmt numFmtId="172" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)&quot; m.&quot;;\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]General"/>
+    <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -184,16 +191,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
@@ -204,24 +211,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,10 +234,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -250,6 +254,3384 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100% Tasa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1992-2002</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10757223628984702"/>
+          <c:y val="0.1351111111111111"/>
+          <c:w val="0.86012233052366249"/>
+          <c:h val="0.61156005499312582"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100% T-Bill 3 meses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Retorno Anualizado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Máxima Caída</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0;[Red]General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-949D-A94C-83C8-74F26A2D3F71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100% T-Bill 1-5 años</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Retorno Anualizado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Máxima Caída</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0;[Red]0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-949D-A94C-83C8-74F26A2D3F71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1836805551"/>
+        <c:axId val="1836807199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1836805551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836807199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1836807199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="-15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836805551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>0% Tasa </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>1992-2002</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10757223628984702"/>
+          <c:y val="0.1351111111111111"/>
+          <c:w val="0.86012233052366249"/>
+          <c:h val="0.6147346581677291"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% Benchmark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Retorno Anualizado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Máxima Caída</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0;[Red]General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AAE-7A4B-8DA9-7939B67C199B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% Trend Following</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Retorno Anualizado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Máxima Caída</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0;[Red]General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AAE-7A4B-8DA9-7939B67C199B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1836805551"/>
+        <c:axId val="1836807199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1836805551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836807199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1836807199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="-15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836805551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>80% Tasa 20%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Otros 1992-2002</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% Benchmark, 80% T-Bill 1-5 años</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Retorno Anualizado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Máxima Caída</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0;[Red]General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-131D-ED4E-B1B6-1B35E7402120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% Trend Following, 80% T-Bill 1-5 años</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Retorno Anualizado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Máxima Caída</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0;[Red]General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-131D-ED4E-B1B6-1B35E7402120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1836805551"/>
+        <c:axId val="1836807199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1836805551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836807199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1836807199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="-15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836805551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Roboto Condensed" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01AC412-5DB9-887F-5A01-636AF4BB036E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B079B3-139D-E34F-A774-1B8C08928B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5728652F-7F07-894C-9D87-C5803FDFFE0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" zoomScale="183" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -587,23 +3969,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -611,7 +3993,7 @@
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
@@ -623,15 +4005,15 @@
       <c r="C3" s="4">
         <v>0.6</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="3">
         <f>B3/C3</f>
         <v>4</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
@@ -643,13 +4025,13 @@
       <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>-6</v>
       </c>
       <c r="E4" s="11">
         <v>20</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="3">
         <f>B4/C4</f>
         <v>1.7</v>
       </c>
@@ -662,21 +4044,21 @@
       <c r="A5" s="9"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="22"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="19"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
@@ -688,13 +4070,13 @@
       <c r="C7" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>-10</v>
       </c>
       <c r="E7" s="12">
         <v>29</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="7">
         <f t="shared" ref="F7:F8" si="0">B7/C7</f>
         <v>0.73913043478260876</v>
       </c>
@@ -702,7 +4084,7 @@
         <f t="shared" ref="G7:G8" si="1">B7/ABS(D7)</f>
         <v>0.16999999999999998</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
@@ -714,13 +4096,13 @@
       <c r="C8" s="6">
         <v>3.8</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>-5</v>
       </c>
       <c r="E8" s="12">
         <v>16</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>0.57894736842105265</v>
       </c>
@@ -733,21 +4115,21 @@
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
@@ -759,13 +4141,13 @@
       <c r="C11" s="4">
         <v>2.8</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>-7</v>
       </c>
       <c r="E11" s="11">
         <v>13</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="3">
         <v>1.6</v>
       </c>
       <c r="G11" s="3">
@@ -783,13 +4165,13 @@
       <c r="C12" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>-5</v>
       </c>
       <c r="E12" s="11">
         <v>22</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="G12" s="3">
@@ -801,21 +4183,21 @@
       <c r="A13" s="9"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
@@ -827,13 +4209,13 @@
       <c r="C15" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>-35</v>
       </c>
       <c r="E15" s="12">
         <v>29</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="7">
         <v>0.9</v>
       </c>
       <c r="G15" s="7">
@@ -845,21 +4227,21 @@
       <c r="A16" s="9"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
@@ -871,13 +4253,13 @@
       <c r="C18" s="4">
         <v>11.4</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <v>-46</v>
       </c>
       <c r="E18" s="11">
         <v>34</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="3">
         <v>0.7</v>
       </c>
       <c r="G18" s="3">
@@ -886,34 +4268,211 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>9.9</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="26">
         <v>18.100000000000001</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <v>-25</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="28">
         <v>16</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="29">
         <v>0.5</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="29">
         <f t="shared" si="3"/>
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B67E2B-FB6E-8544-B916-F8EFD23DD5E4}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="C3" s="20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C10" s="17">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="C11" s="17">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="C17" s="17">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="26">
+        <v>9.9</v>
+      </c>
+      <c r="C18" s="27">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>